--- a/gen_excel/tableros_concurso_125.xlsx
+++ b/gen_excel/tableros_concurso_125.xlsx
@@ -17,24 +17,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>CONCURSANTE</t>
   </si>
   <si>
+    <t>POSICION</t>
+  </si>
+  <si>
     <t>PUNTAJE TOTAL</t>
   </si>
   <si>
     <t>EMPATADO</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Andrew</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>b</t>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>RONDA</t>
   </si>
   <si>
     <t>CATEGORIA</t>
@@ -481,16 +487,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -499,12 +508,12 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -513,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +546,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,191 +558,176 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7"/>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9"/>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10"/>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10"/>
       <c r="F10">
@@ -741,37 +735,33 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11"/>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12"/>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12"/>
       <c r="F12">
@@ -779,17 +769,15 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13"/>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1938</v>
@@ -799,17 +787,15 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14"/>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14"/>
       <c r="F14">
@@ -817,37 +803,33 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15"/>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16"/>
       <c r="F16">
@@ -855,23 +837,89 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
+      <c r="A17"/>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +943,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,34 +955,37 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -942,16 +993,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3"/>
       <c r="F3">
@@ -960,16 +1011,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4"/>
       <c r="F4">
@@ -978,39 +1029,21 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5"/>
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
       <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6">
         <v>3</v>
       </c>
     </row>

--- a/gen_excel/tableros_concurso_125.xlsx
+++ b/gen_excel/tableros_concurso_125.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero 1" sheetId="1" r:id="rId4"/>
     <sheet name="Puntuaciones generales" sheetId="2" r:id="rId5"/>
-    <sheet name="Puntuaciones PASO" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>CONCURSANTE</t>
   </si>
@@ -43,13 +42,19 @@
     <t>RONDA</t>
   </si>
   <si>
+    <t>PREGUNTA</t>
+  </si>
+  <si>
+    <t>INCISO</t>
+  </si>
+  <si>
+    <t>RESPUESTA</t>
+  </si>
+  <si>
     <t>CATEGORIA</t>
   </si>
   <si>
-    <t>PREGUNTA</t>
-  </si>
-  <si>
-    <t>RESPUESTA</t>
+    <t>ROBA PUNTOS</t>
   </si>
   <si>
     <t>PUNTAJE</t>
@@ -58,13 +63,19 @@
     <t>Primera Ronda Grupal</t>
   </si>
   <si>
+    <t>¿Qué tipo de onda es más sensible a las fracturas y permeabilidad?</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Cizalla</t>
+  </si>
+  <si>
     <t>GENERALES</t>
   </si>
   <si>
-    <t>¿Qué tipo de onda es más sensible a las fracturas y permeabilidad?</t>
-  </si>
-  <si>
-    <t>Cizalla</t>
+    <t>A</t>
   </si>
   <si>
     <t>Stoneley</t>
@@ -73,6 +84,9 @@
     <t>¿Cuál de los siguientes métodos no es utilizado para determinar la edad relativa?</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Radioactividad</t>
   </si>
   <si>
@@ -82,6 +96,9 @@
     <t>Es el estudio de la deformación tectónica que involucra el flujo lateral y vertical de halita y otras evaporitas y su desplazamiento diapírico a través de la cubierta sedimentaria:</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sintectonica</t>
   </si>
   <si>
@@ -103,6 +120,9 @@
     <t>Estudia las fuerzas tectónicas y procesos del interior de la Tierra. Puede estudiar las transformaciones de la estructura interna de la Tierra y/o los procesos exógenos de la superficie terrestre:</t>
   </si>
   <si>
+    <t>Paso pregunta a Andrew</t>
+  </si>
+  <si>
     <t>Es la mayor asociación de comercio de Estados Unidos para la industria del petróleo y el gas natural. Se dice representar a cerca de 400 empresas involucradas en la producción, refinación, distribución de hidrocarburos:</t>
   </si>
   <si>
@@ -110,6 +130,9 @@
   </si>
   <si>
     <t>Tipo de hidrocarburo predominante en la Cuenca de Veracruz:</t>
+  </si>
+  <si>
+    <t>Paso pregunta a Daniela</t>
   </si>
   <si>
     <t>¿En qué año el presidente General Lázaro Cárdenas del Río, decreta la expropiación petrolera en México y crea la empresa Petróleos Mexicanos?</t>
@@ -144,15 +167,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,8 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -477,23 +512,23 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -546,504 +581,533 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2"/>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3"/>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7"/>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13"/>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1938</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14"/>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="E14"/>
-      <c r="F14">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15"/>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20">
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16"/>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17"/>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18"/>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19"/>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="E20"/>
-      <c r="F20">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21"/>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
         <v>3</v>
       </c>
     </row>
